--- a/Input/Orient_familyCare/rateSheet1.xlsx
+++ b/Input/Orient_familyCare/rateSheet1.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$715</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$715</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -266,12 +266,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -341,28 +341,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K715"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A692" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F713" activeCellId="0" sqref="F713"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="90.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,7 +834,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>15653.64</v>
+        <v>19941.73</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>14</v>
@@ -1432,7 +1429,7 @@
         <v>60</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>18674.1</v>
+        <v>23790.8</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>18</v>
@@ -2027,7 +2024,7 @@
         <v>60</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>15605.4</v>
+        <v>19935.19</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>14</v>
@@ -2062,7 +2059,7 @@
         <v>65</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>17984.06</v>
+        <v>19959.83</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>14</v>
@@ -2622,7 +2619,7 @@
         <v>60</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>18465.97</v>
+        <v>23590.59</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>18</v>
@@ -2657,7 +2654,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>22884.22</v>
+        <v>25399.01</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>18</v>
@@ -3217,7 +3214,7 @@
         <v>60</v>
       </c>
       <c r="F82" s="3" t="n">
-        <v>15633.52</v>
+        <v>19956.17</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>14</v>
@@ -3252,7 +3249,7 @@
         <v>65</v>
       </c>
       <c r="F83" s="3" t="n">
-        <v>15637.78</v>
+        <v>19945.87</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>14</v>
@@ -3287,7 +3284,7 @@
         <v>70</v>
       </c>
       <c r="F84" s="3" t="n">
-        <v>18782.51</v>
+        <v>20283.31</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>14</v>
@@ -3812,7 +3809,7 @@
         <v>60</v>
       </c>
       <c r="F99" s="3" t="n">
-        <v>18634.78</v>
+        <v>23788.48</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>18</v>
@@ -3847,7 +3844,7 @@
         <v>65</v>
       </c>
       <c r="F100" s="3" t="n">
-        <v>20058.45</v>
+        <v>25586.14</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>18</v>
@@ -3882,7 +3879,7 @@
         <v>70</v>
       </c>
       <c r="F101" s="3" t="n">
-        <v>18782.51</v>
+        <v>20283.31</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>18</v>
@@ -4407,7 +4404,7 @@
         <v>60</v>
       </c>
       <c r="F116" s="3" t="n">
-        <v>15577.85</v>
+        <v>19838.23</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>14</v>
@@ -4442,7 +4439,7 @@
         <v>65</v>
       </c>
       <c r="F117" s="3" t="n">
-        <v>15585.35</v>
+        <v>19914.46</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>14</v>
@@ -4477,7 +4474,7 @@
         <v>70</v>
       </c>
       <c r="F118" s="3" t="n">
-        <v>15816.29</v>
+        <v>20141.07</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>14</v>
@@ -4512,7 +4509,7 @@
         <v>75</v>
       </c>
       <c r="F119" s="3" t="n">
-        <v>15889.21</v>
+        <v>19855.88</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>14</v>
@@ -4547,7 +4544,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="3" t="n">
-        <v>15889.21</v>
+        <v>19855.88</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>14</v>
@@ -5002,7 +4999,7 @@
         <v>60</v>
       </c>
       <c r="F133" s="3" t="n">
-        <v>18422.81</v>
+        <v>23462.38</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>18</v>
@@ -5037,7 +5034,7 @@
         <v>65</v>
       </c>
       <c r="F134" s="3" t="n">
-        <v>19818.6</v>
+        <v>25325.29</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>18</v>
@@ -5072,7 +5069,7 @@
         <v>70</v>
       </c>
       <c r="F135" s="3" t="n">
-        <v>15816.29</v>
+        <v>20141.07</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>18</v>
@@ -5107,7 +5104,7 @@
         <v>75</v>
       </c>
       <c r="F136" s="3" t="n">
-        <v>15889.21</v>
+        <v>19855.88</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>18</v>
@@ -5142,7 +5139,7 @@
         <v>99</v>
       </c>
       <c r="F137" s="3" t="n">
-        <v>15889.21</v>
+        <v>19855.88</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>18</v>
@@ -5597,7 +5594,7 @@
         <v>60</v>
       </c>
       <c r="F150" s="3" t="n">
-        <v>15106.31</v>
+        <v>19846.94</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>14</v>
@@ -5632,7 +5629,7 @@
         <v>65</v>
       </c>
       <c r="F151" s="3" t="n">
-        <v>15232.66</v>
+        <v>19877.67</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>14</v>
@@ -5667,7 +5664,7 @@
         <v>70</v>
       </c>
       <c r="F152" s="3" t="n">
-        <v>15538.36</v>
+        <v>20131.05</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>14</v>
@@ -5702,7 +5699,7 @@
         <v>75</v>
       </c>
       <c r="F153" s="3" t="n">
-        <v>15206.02</v>
+        <v>19899.11</v>
       </c>
       <c r="G153" s="5" t="s">
         <v>14</v>
@@ -5737,7 +5734,7 @@
         <v>99</v>
       </c>
       <c r="F154" s="3" t="n">
-        <v>15206.02</v>
+        <v>19899.11</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>14</v>
@@ -6192,7 +6189,7 @@
         <v>60</v>
       </c>
       <c r="F167" s="3" t="n">
-        <v>17864.82</v>
+        <v>23472.41</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>18</v>
@@ -6227,7 +6224,7 @@
         <v>65</v>
       </c>
       <c r="F168" s="3" t="n">
-        <v>19369.74</v>
+        <v>25278.17</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>18</v>
@@ -6262,7 +6259,7 @@
         <v>70</v>
       </c>
       <c r="F169" s="3" t="n">
-        <v>15538.36</v>
+        <v>20131.05</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>18</v>
@@ -6297,7 +6294,7 @@
         <v>75</v>
       </c>
       <c r="F170" s="3" t="n">
-        <v>15206.02</v>
+        <v>19899.11</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>18</v>
@@ -6332,7 +6329,7 @@
         <v>99</v>
       </c>
       <c r="F171" s="3" t="n">
-        <v>15206.02</v>
+        <v>19899.11</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>18</v>
@@ -6787,7 +6784,7 @@
         <v>60</v>
       </c>
       <c r="F184" s="3" t="n">
-        <v>15105.06</v>
+        <v>19837.86</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>14</v>
@@ -6822,7 +6819,7 @@
         <v>65</v>
       </c>
       <c r="F185" s="3" t="n">
-        <v>15179.56</v>
+        <v>19872.86</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>14</v>
@@ -6857,7 +6854,7 @@
         <v>70</v>
       </c>
       <c r="F186" s="3" t="n">
-        <v>15436.73</v>
+        <v>20155.37</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>14</v>
@@ -6892,7 +6889,7 @@
         <v>75</v>
       </c>
       <c r="F187" s="3" t="n">
-        <v>15297.56</v>
+        <v>19845.1</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>14</v>
@@ -6927,7 +6924,7 @@
         <v>99</v>
       </c>
       <c r="F188" s="3" t="n">
-        <v>15297.56</v>
+        <v>19845.1</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>14</v>
@@ -7382,7 +7379,7 @@
         <v>60</v>
       </c>
       <c r="F201" s="3" t="n">
-        <v>17863.6</v>
+        <v>23462.01</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>18</v>
@@ -7417,7 +7414,7 @@
         <v>65</v>
       </c>
       <c r="F202" s="3" t="n">
-        <v>19302.52</v>
+        <v>25272.47</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>18</v>
@@ -7452,7 +7449,7 @@
         <v>70</v>
       </c>
       <c r="F203" s="3" t="n">
-        <v>15436.73</v>
+        <v>20155.37</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>18</v>
@@ -7487,7 +7484,7 @@
         <v>75</v>
       </c>
       <c r="F204" s="3" t="n">
-        <v>15297.56</v>
+        <v>19845.1</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>18</v>
@@ -7522,7 +7519,7 @@
         <v>99</v>
       </c>
       <c r="F205" s="3" t="n">
-        <v>15297.56</v>
+        <v>19845.1</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>18</v>
@@ -7977,7 +7974,7 @@
         <v>60</v>
       </c>
       <c r="F218" s="3" t="n">
-        <v>15118.84</v>
+        <v>19873.2</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>14</v>
@@ -8012,7 +8009,7 @@
         <v>65</v>
       </c>
       <c r="F219" s="3" t="n">
-        <v>15101.25</v>
+        <v>19885.84</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>14</v>
@@ -8047,7 +8044,7 @@
         <v>70</v>
       </c>
       <c r="F220" s="3" t="n">
-        <v>15365.41</v>
+        <v>20127</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>14</v>
@@ -8082,7 +8079,7 @@
         <v>75</v>
       </c>
       <c r="F221" s="3" t="n">
-        <v>15186.51</v>
+        <v>19874.9</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>14</v>
@@ -8117,7 +8114,7 @@
         <v>99</v>
       </c>
       <c r="F222" s="3" t="n">
-        <v>15186.51</v>
+        <v>19874.9</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>14</v>
@@ -8572,7 +8569,7 @@
         <v>60</v>
       </c>
       <c r="F235" s="3" t="n">
-        <v>17945.5</v>
+        <v>23590.08</v>
       </c>
       <c r="G235" s="5" t="s">
         <v>18</v>
@@ -8607,7 +8604,7 @@
         <v>65</v>
       </c>
       <c r="F236" s="3" t="n">
-        <v>19280.49</v>
+        <v>25391.2</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>18</v>
@@ -8642,7 +8639,7 @@
         <v>70</v>
       </c>
       <c r="F237" s="3" t="n">
-        <v>15365.41</v>
+        <v>20127</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>18</v>
@@ -8677,7 +8674,7 @@
         <v>75</v>
       </c>
       <c r="F238" s="3" t="n">
-        <v>15186.51</v>
+        <v>19874.9</v>
       </c>
       <c r="G238" s="5" t="s">
         <v>18</v>
@@ -8712,7 +8709,7 @@
         <v>99</v>
       </c>
       <c r="F239" s="3" t="n">
-        <v>15186.51</v>
+        <v>19874.9</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>18</v>
@@ -9167,7 +9164,7 @@
         <v>60</v>
       </c>
       <c r="F252" s="3" t="n">
-        <v>15242.53</v>
+        <v>19417.84</v>
       </c>
       <c r="G252" s="8" t="s">
         <v>14</v>
@@ -9762,7 +9759,7 @@
         <v>60</v>
       </c>
       <c r="F269" s="3" t="n">
-        <v>18114.54</v>
+        <v>23077.72</v>
       </c>
       <c r="G269" s="8" t="s">
         <v>18</v>
@@ -10357,7 +10354,7 @@
         <v>60</v>
       </c>
       <c r="F286" s="3" t="n">
-        <v>15208.74</v>
+        <v>19428.32</v>
       </c>
       <c r="G286" s="8" t="s">
         <v>14</v>
@@ -10392,7 +10389,7 @@
         <v>65</v>
       </c>
       <c r="F287" s="3" t="n">
-        <v>17530.76</v>
+        <v>19456.66</v>
       </c>
       <c r="G287" s="8" t="s">
         <v>14</v>
@@ -10952,7 +10949,7 @@
         <v>60</v>
       </c>
       <c r="F303" s="3" t="n">
-        <v>17926.07</v>
+        <v>22900.68</v>
       </c>
       <c r="G303" s="8" t="s">
         <v>18</v>
@@ -10987,7 +10984,7 @@
         <v>65</v>
       </c>
       <c r="F304" s="3" t="n">
-        <v>22211.14</v>
+        <v>24651.89</v>
       </c>
       <c r="G304" s="8" t="s">
         <v>18</v>
@@ -11547,7 +11544,7 @@
         <v>60</v>
       </c>
       <c r="F320" s="3" t="n">
-        <v>15224.28</v>
+        <v>19433.62</v>
       </c>
       <c r="G320" s="8" t="s">
         <v>14</v>
@@ -11582,7 +11579,7 @@
         <v>65</v>
       </c>
       <c r="F321" s="3" t="n">
-        <v>15231.76</v>
+        <v>19427.82</v>
       </c>
       <c r="G321" s="8" t="s">
         <v>14</v>
@@ -11617,7 +11614,7 @@
         <v>70</v>
       </c>
       <c r="F322" s="3" t="n">
-        <v>18218.02</v>
+        <v>19673.66</v>
       </c>
       <c r="G322" s="8" t="s">
         <v>14</v>
@@ -12142,7 +12139,7 @@
         <v>60</v>
       </c>
       <c r="F337" s="3" t="n">
-        <v>18077.76</v>
+        <v>23077.22</v>
       </c>
       <c r="G337" s="8" t="s">
         <v>18</v>
@@ -12177,7 +12174,7 @@
         <v>65</v>
       </c>
       <c r="F338" s="3" t="n">
-        <v>19455.56</v>
+        <v>24816.93</v>
       </c>
       <c r="G338" s="8" t="s">
         <v>18</v>
@@ -12212,7 +12209,7 @@
         <v>70</v>
       </c>
       <c r="F339" s="3" t="n">
-        <v>18218.02</v>
+        <v>19673.66</v>
       </c>
       <c r="G339" s="8" t="s">
         <v>18</v>
@@ -12737,7 +12734,7 @@
         <v>60</v>
       </c>
       <c r="F354" s="3" t="n">
-        <v>15182.82</v>
+        <v>19335.01</v>
       </c>
       <c r="G354" s="8" t="s">
         <v>14</v>
@@ -12772,7 +12769,7 @@
         <v>65</v>
       </c>
       <c r="F355" s="3" t="n">
-        <v>15193.51</v>
+        <v>19413.63</v>
       </c>
       <c r="G355" s="8" t="s">
         <v>14</v>
@@ -12807,7 +12804,7 @@
         <v>70</v>
       </c>
       <c r="F356" s="3" t="n">
-        <v>15352.11</v>
+        <v>19549.78</v>
       </c>
       <c r="G356" s="8" t="s">
         <v>14</v>
@@ -12842,7 +12839,7 @@
         <v>75</v>
       </c>
       <c r="F357" s="3" t="n">
-        <v>15487.05</v>
+        <v>19353.19</v>
       </c>
       <c r="G357" s="8" t="s">
         <v>14</v>
@@ -12877,7 +12874,7 @@
         <v>99</v>
       </c>
       <c r="F358" s="3" t="n">
-        <v>15487.05</v>
+        <v>19353.19</v>
       </c>
       <c r="G358" s="8" t="s">
         <v>14</v>
@@ -13332,7 +13329,7 @@
         <v>60</v>
       </c>
       <c r="F371" s="3" t="n">
-        <v>17885.12</v>
+        <v>22777.43</v>
       </c>
       <c r="G371" s="8" t="s">
         <v>18</v>
@@ -13367,7 +13364,7 @@
         <v>65</v>
       </c>
       <c r="F372" s="3" t="n">
-        <v>19236.79</v>
+        <v>24581.63</v>
       </c>
       <c r="G372" s="8" t="s">
         <v>18</v>
@@ -13402,7 +13399,7 @@
         <v>70</v>
       </c>
       <c r="F373" s="3" t="n">
-        <v>15352.11</v>
+        <v>19549.78</v>
       </c>
       <c r="G373" s="8" t="s">
         <v>18</v>
@@ -13437,7 +13434,7 @@
         <v>75</v>
       </c>
       <c r="F374" s="3" t="n">
-        <v>15487.05</v>
+        <v>19353.19</v>
       </c>
       <c r="G374" s="8" t="s">
         <v>18</v>
@@ -13472,7 +13469,7 @@
         <v>99</v>
       </c>
       <c r="F375" s="3" t="n">
-        <v>15487.05</v>
+        <v>19353.19</v>
       </c>
       <c r="G375" s="8" t="s">
         <v>18</v>
@@ -13927,7 +13924,7 @@
         <v>60</v>
       </c>
       <c r="F388" s="3" t="n">
-        <v>14723.27</v>
+        <v>19343.51</v>
       </c>
       <c r="G388" s="8" t="s">
         <v>14</v>
@@ -13962,7 +13959,7 @@
         <v>65</v>
       </c>
       <c r="F389" s="3" t="n">
-        <v>14849.72</v>
+        <v>19377.79</v>
       </c>
       <c r="G389" s="8" t="s">
         <v>14</v>
@@ -13997,7 +13994,7 @@
         <v>70</v>
       </c>
       <c r="F390" s="3" t="n">
-        <v>15082.36</v>
+        <v>19540.07</v>
       </c>
       <c r="G390" s="8" t="s">
         <v>14</v>
@@ -14032,7 +14029,7 @@
         <v>75</v>
       </c>
       <c r="F391" s="3" t="n">
-        <v>14821.2</v>
+        <v>19395.34</v>
       </c>
       <c r="G391" s="8" t="s">
         <v>14</v>
@@ -14067,7 +14064,7 @@
         <v>99</v>
       </c>
       <c r="F392" s="3" t="n">
-        <v>14821.2</v>
+        <v>19395.34</v>
       </c>
       <c r="G392" s="8" t="s">
         <v>14</v>
@@ -14522,7 +14519,7 @@
         <v>60</v>
       </c>
       <c r="F405" s="3" t="n">
-        <v>17343.46</v>
+        <v>22787.19</v>
       </c>
       <c r="G405" s="8" t="s">
         <v>18</v>
@@ -14557,7 +14554,7 @@
         <v>65</v>
       </c>
       <c r="F406" s="3" t="n">
-        <v>18801.14</v>
+        <v>24535.93</v>
       </c>
       <c r="G406" s="8" t="s">
         <v>18</v>
@@ -14592,7 +14589,7 @@
         <v>70</v>
       </c>
       <c r="F407" s="3" t="n">
-        <v>15082.36</v>
+        <v>19540.07</v>
       </c>
       <c r="G407" s="8" t="s">
         <v>18</v>
@@ -14627,7 +14624,7 @@
         <v>75</v>
       </c>
       <c r="F408" s="3" t="n">
-        <v>14821.2</v>
+        <v>19395.34</v>
       </c>
       <c r="G408" s="8" t="s">
         <v>18</v>
@@ -14662,7 +14659,7 @@
         <v>99</v>
       </c>
       <c r="F409" s="3" t="n">
-        <v>14821.2</v>
+        <v>19395.34</v>
       </c>
       <c r="G409" s="8" t="s">
         <v>18</v>
@@ -15117,7 +15114,7 @@
         <v>60</v>
       </c>
       <c r="F422" s="3" t="n">
-        <v>14722.03</v>
+        <v>19334.63</v>
       </c>
       <c r="G422" s="8" t="s">
         <v>14</v>
@@ -15152,7 +15149,7 @@
         <v>65</v>
       </c>
       <c r="F423" s="3" t="n">
-        <v>14797.94</v>
+        <v>19373.08</v>
       </c>
       <c r="G423" s="8" t="s">
         <v>14</v>
@@ -15187,7 +15184,7 @@
         <v>70</v>
       </c>
       <c r="F424" s="3" t="n">
-        <v>14983.7</v>
+        <v>19563.65</v>
       </c>
       <c r="G424" s="8" t="s">
         <v>14</v>
@@ -15222,7 +15219,7 @@
         <v>75</v>
       </c>
       <c r="F425" s="3" t="n">
-        <v>14910.39</v>
+        <v>19342.66</v>
       </c>
       <c r="G425" s="8" t="s">
         <v>14</v>
@@ -15257,7 +15254,7 @@
         <v>99</v>
       </c>
       <c r="F426" s="3" t="n">
-        <v>14910.39</v>
+        <v>19342.66</v>
       </c>
       <c r="G426" s="8" t="s">
         <v>14</v>
@@ -15712,7 +15709,7 @@
         <v>60</v>
       </c>
       <c r="F439" s="3" t="n">
-        <v>17342.25</v>
+        <v>22777.07</v>
       </c>
       <c r="G439" s="8" t="s">
         <v>18</v>
@@ -15747,7 +15744,7 @@
         <v>65</v>
       </c>
       <c r="F440" s="3" t="n">
-        <v>18735.87</v>
+        <v>24530.36</v>
       </c>
       <c r="G440" s="8" t="s">
         <v>18</v>
@@ -15782,7 +15779,7 @@
         <v>70</v>
       </c>
       <c r="F441" s="3" t="n">
-        <v>14983.7</v>
+        <v>19563.65</v>
       </c>
       <c r="G441" s="8" t="s">
         <v>18</v>
@@ -15817,7 +15814,7 @@
         <v>75</v>
       </c>
       <c r="F442" s="3" t="n">
-        <v>14910.39</v>
+        <v>19342.66</v>
       </c>
       <c r="G442" s="8" t="s">
         <v>18</v>
@@ -15852,7 +15849,7 @@
         <v>99</v>
       </c>
       <c r="F443" s="3" t="n">
-        <v>14910.39</v>
+        <v>19342.66</v>
       </c>
       <c r="G443" s="8" t="s">
         <v>18</v>
@@ -16307,7 +16304,7 @@
         <v>60</v>
       </c>
       <c r="F456" s="3" t="n">
-        <v>14729.71</v>
+        <v>19361.53</v>
       </c>
       <c r="G456" s="8" t="s">
         <v>14</v>
@@ -16342,7 +16339,7 @@
         <v>65</v>
       </c>
       <c r="F457" s="3" t="n">
-        <v>14715.83</v>
+        <v>19378.13</v>
       </c>
       <c r="G457" s="8" t="s">
         <v>14</v>
@@ -16377,7 +16374,7 @@
         <v>70</v>
       </c>
       <c r="F458" s="3" t="n">
-        <v>14909.46</v>
+        <v>19529.55</v>
       </c>
       <c r="G458" s="8" t="s">
         <v>14</v>
@@ -16412,7 +16409,7 @@
         <v>75</v>
       </c>
       <c r="F459" s="3" t="n">
-        <v>14796.38</v>
+        <v>19364.15</v>
       </c>
       <c r="G459" s="8" t="s">
         <v>14</v>
@@ -16447,7 +16444,7 @@
         <v>99</v>
       </c>
       <c r="F460" s="3" t="n">
-        <v>14796.38</v>
+        <v>19364.15</v>
       </c>
       <c r="G460" s="8" t="s">
         <v>14</v>
@@ -16902,7 +16899,7 @@
         <v>60</v>
       </c>
       <c r="F473" s="3" t="n">
-        <v>17415.86</v>
+        <v>22893.63</v>
       </c>
       <c r="G473" s="8" t="s">
         <v>18</v>
@@ -16937,7 +16934,7 @@
         <v>65</v>
       </c>
       <c r="F474" s="3" t="n">
-        <v>18708.2</v>
+        <v>24637.32</v>
       </c>
       <c r="G474" s="8" t="s">
         <v>18</v>
@@ -16972,7 +16969,7 @@
         <v>70</v>
       </c>
       <c r="F475" s="3" t="n">
-        <v>14909.46</v>
+        <v>19529.55</v>
       </c>
       <c r="G475" s="8" t="s">
         <v>18</v>
@@ -17007,7 +17004,7 @@
         <v>75</v>
       </c>
       <c r="F476" s="3" t="n">
-        <v>14796.38</v>
+        <v>19364.15</v>
       </c>
       <c r="G476" s="8" t="s">
         <v>18</v>
@@ -17042,7 +17039,7 @@
         <v>99</v>
       </c>
       <c r="F477" s="3" t="n">
-        <v>14796.38</v>
+        <v>19364.15</v>
       </c>
       <c r="G477" s="8" t="s">
         <v>18</v>
@@ -17497,7 +17494,7 @@
         <v>60</v>
       </c>
       <c r="F490" s="3" t="n">
-        <v>14289.96</v>
+        <v>18203.95</v>
       </c>
       <c r="G490" s="11" t="s">
         <v>14</v>
@@ -18092,7 +18089,7 @@
         <v>60</v>
       </c>
       <c r="F507" s="3" t="n">
-        <v>16817.98</v>
+        <v>21425.48</v>
       </c>
       <c r="G507" s="11" t="s">
         <v>18</v>
@@ -18687,7 +18684,7 @@
         <v>60</v>
       </c>
       <c r="F524" s="3" t="n">
-        <v>14289.66</v>
+        <v>18253.86</v>
       </c>
       <c r="G524" s="11" t="s">
         <v>14</v>
@@ -18722,7 +18719,7 @@
         <v>65</v>
       </c>
       <c r="F525" s="3" t="n">
-        <v>16480.43</v>
+        <v>18290.8</v>
       </c>
       <c r="G525" s="11" t="s">
         <v>14</v>
@@ -19282,7 +19279,7 @@
         <v>60</v>
       </c>
       <c r="F541" s="3" t="n">
-        <v>16675.09</v>
+        <v>21302.11</v>
       </c>
       <c r="G541" s="11" t="s">
         <v>18</v>
@@ -19317,7 +19314,7 @@
         <v>65</v>
       </c>
       <c r="F542" s="3" t="n">
-        <v>20651.56</v>
+        <v>22920.76</v>
       </c>
       <c r="G542" s="11" t="s">
         <v>18</v>
@@ -19877,7 +19874,7 @@
         <v>60</v>
       </c>
       <c r="F558" s="3" t="n">
-        <v>14276.04</v>
+        <v>18222.81</v>
       </c>
       <c r="G558" s="11" t="s">
         <v>14</v>
@@ -19912,7 +19909,7 @@
         <v>65</v>
       </c>
       <c r="F559" s="3" t="n">
-        <v>14290.97</v>
+        <v>18227.48</v>
       </c>
       <c r="G559" s="11" t="s">
         <v>14</v>
@@ -19947,7 +19944,7 @@
         <v>70</v>
       </c>
       <c r="F560" s="3" t="n">
-        <v>16910.05</v>
+        <v>18261.05</v>
       </c>
       <c r="G560" s="11" t="s">
         <v>14</v>
@@ -20472,7 +20469,7 @@
         <v>60</v>
       </c>
       <c r="F575" s="3" t="n">
-        <v>16787.1</v>
+        <v>21429.18</v>
       </c>
       <c r="G575" s="11" t="s">
         <v>18</v>
@@ -20507,7 +20504,7 @@
         <v>65</v>
       </c>
       <c r="F576" s="3" t="n">
-        <v>18058.63</v>
+        <v>23034.6</v>
       </c>
       <c r="G576" s="11" t="s">
         <v>18</v>
@@ -20542,7 +20539,7 @@
         <v>70</v>
       </c>
       <c r="F577" s="3" t="n">
-        <v>16910.05</v>
+        <v>18261.05</v>
       </c>
       <c r="G577" s="11" t="s">
         <v>18</v>
@@ -21067,7 +21064,7 @@
         <v>60</v>
       </c>
       <c r="F592" s="3" t="n">
-        <v>14267.5</v>
+        <v>18169</v>
       </c>
       <c r="G592" s="11" t="s">
         <v>14</v>
@@ -21102,7 +21099,7 @@
         <v>65</v>
       </c>
       <c r="F593" s="3" t="n">
-        <v>14285.61</v>
+        <v>18253.18</v>
       </c>
       <c r="G593" s="11" t="s">
         <v>14</v>
@@ -21137,7 +21134,7 @@
         <v>70</v>
       </c>
       <c r="F594" s="3" t="n">
-        <v>14276.56</v>
+        <v>18179.72</v>
       </c>
       <c r="G594" s="11" t="s">
         <v>14</v>
@@ -21172,7 +21169,7 @@
         <v>75</v>
       </c>
       <c r="F595" s="3" t="n">
-        <v>14555.22</v>
+        <v>18188.4</v>
       </c>
       <c r="G595" s="11" t="s">
         <v>14</v>
@@ -21207,7 +21204,7 @@
         <v>99</v>
       </c>
       <c r="F596" s="3" t="n">
-        <v>14555.22</v>
+        <v>18188.4</v>
       </c>
       <c r="G596" s="11" t="s">
         <v>14</v>
@@ -21662,7 +21659,7 @@
         <v>60</v>
       </c>
       <c r="F609" s="3" t="n">
-        <v>16639.27</v>
+        <v>21190.36</v>
       </c>
       <c r="G609" s="11" t="s">
         <v>18</v>
@@ -21697,7 +21694,7 @@
         <v>65</v>
       </c>
       <c r="F610" s="3" t="n">
-        <v>17888.69</v>
+        <v>22858.53</v>
       </c>
       <c r="G610" s="11" t="s">
         <v>18</v>
@@ -21732,7 +21729,7 @@
         <v>70</v>
       </c>
       <c r="F611" s="3" t="n">
-        <v>14276.56</v>
+        <v>18179.72</v>
       </c>
       <c r="G611" s="11" t="s">
         <v>18</v>
@@ -21767,7 +21764,7 @@
         <v>75</v>
       </c>
       <c r="F612" s="3" t="n">
-        <v>14555.22</v>
+        <v>18188.4</v>
       </c>
       <c r="G612" s="11" t="s">
         <v>18</v>
@@ -21802,7 +21799,7 @@
         <v>99</v>
       </c>
       <c r="F613" s="3" t="n">
-        <v>14555.22</v>
+        <v>18188.4</v>
       </c>
       <c r="G613" s="11" t="s">
         <v>18</v>
@@ -22257,7 +22254,7 @@
         <v>60</v>
       </c>
       <c r="F626" s="3" t="n">
-        <v>13835.74</v>
+        <v>18177.04</v>
       </c>
       <c r="G626" s="11" t="s">
         <v>14</v>
@@ -22292,7 +22289,7 @@
         <v>65</v>
       </c>
       <c r="F627" s="3" t="n">
-        <v>13962.43</v>
+        <v>18219.54</v>
       </c>
       <c r="G627" s="11" t="s">
         <v>14</v>
@@ -22327,7 +22324,7 @@
         <v>70</v>
       </c>
       <c r="F628" s="3" t="n">
-        <v>14025.77</v>
+        <v>18170.74</v>
       </c>
       <c r="G628" s="11" t="s">
         <v>14</v>
@@ -22362,7 +22359,7 @@
         <v>75</v>
       </c>
       <c r="F629" s="3" t="n">
-        <v>13929.53</v>
+        <v>18228.07</v>
       </c>
       <c r="G629" s="11" t="s">
         <v>14</v>
@@ -22397,7 +22394,7 @@
         <v>99</v>
       </c>
       <c r="F630" s="3" t="n">
-        <v>13929.53</v>
+        <v>18228.07</v>
       </c>
       <c r="G630" s="11" t="s">
         <v>14</v>
@@ -22852,7 +22849,7 @@
         <v>60</v>
       </c>
       <c r="F643" s="3" t="n">
-        <v>16135.43</v>
+        <v>21199.5</v>
       </c>
       <c r="G643" s="11" t="s">
         <v>18</v>
@@ -22887,7 +22884,7 @@
         <v>65</v>
       </c>
       <c r="F644" s="3" t="n">
-        <v>17483.65</v>
+        <v>22816.09</v>
       </c>
       <c r="G644" s="11" t="s">
         <v>18</v>
@@ -22922,7 +22919,7 @@
         <v>70</v>
       </c>
       <c r="F645" s="3" t="n">
-        <v>14025.77</v>
+        <v>18170.74</v>
       </c>
       <c r="G645" s="11" t="s">
         <v>18</v>
@@ -22957,7 +22954,7 @@
         <v>75</v>
       </c>
       <c r="F646" s="3" t="n">
-        <v>13929.53</v>
+        <v>18228.07</v>
       </c>
       <c r="G646" s="11" t="s">
         <v>18</v>
@@ -22992,7 +22989,7 @@
         <v>99</v>
       </c>
       <c r="F647" s="3" t="n">
-        <v>13929.53</v>
+        <v>18228.07</v>
       </c>
       <c r="G647" s="11" t="s">
         <v>18</v>
@@ -23447,7 +23444,7 @@
         <v>60</v>
       </c>
       <c r="F660" s="3" t="n">
-        <v>13834.52</v>
+        <v>18168.63</v>
       </c>
       <c r="G660" s="11" t="s">
         <v>14</v>
@@ -23482,7 +23479,7 @@
         <v>65</v>
       </c>
       <c r="F661" s="3" t="n">
-        <v>13913.7</v>
+        <v>18215.03</v>
       </c>
       <c r="G661" s="11" t="s">
         <v>14</v>
@@ -23517,7 +23514,7 @@
         <v>70</v>
       </c>
       <c r="F662" s="3" t="n">
-        <v>13933.98</v>
+        <v>18192.6</v>
       </c>
       <c r="G662" s="11" t="s">
         <v>14</v>
@@ -23552,7 +23549,7 @@
         <v>75</v>
       </c>
       <c r="F663" s="3" t="n">
-        <v>14013.3</v>
+        <v>18178.5</v>
       </c>
       <c r="G663" s="11" t="s">
         <v>14</v>
@@ -23587,7 +23584,7 @@
         <v>99</v>
       </c>
       <c r="F664" s="3" t="n">
-        <v>14013.3</v>
+        <v>18178.5</v>
       </c>
       <c r="G664" s="11" t="s">
         <v>14</v>
@@ -24042,7 +24039,7 @@
         <v>60</v>
       </c>
       <c r="F677" s="3" t="n">
-        <v>16134.25</v>
+        <v>21190.01</v>
       </c>
       <c r="G677" s="11" t="s">
         <v>18</v>
@@ -24077,7 +24074,7 @@
         <v>65</v>
       </c>
       <c r="F678" s="3" t="n">
-        <v>17422.89</v>
+        <v>22810.83</v>
       </c>
       <c r="G678" s="11" t="s">
         <v>18</v>
@@ -24112,7 +24109,7 @@
         <v>70</v>
       </c>
       <c r="F679" s="3" t="n">
-        <v>13933.98</v>
+        <v>18192.6</v>
       </c>
       <c r="G679" s="11" t="s">
         <v>18</v>
@@ -24147,7 +24144,7 @@
         <v>75</v>
       </c>
       <c r="F680" s="3" t="n">
-        <v>14013.3</v>
+        <v>18178.5</v>
       </c>
       <c r="G680" s="11" t="s">
         <v>18</v>
@@ -24182,7 +24179,7 @@
         <v>99</v>
       </c>
       <c r="F681" s="3" t="n">
-        <v>14013.3</v>
+        <v>18178.5</v>
       </c>
       <c r="G681" s="11" t="s">
         <v>18</v>
@@ -24637,7 +24634,7 @@
         <v>60</v>
       </c>
       <c r="F694" s="3" t="n">
-        <v>13828.08</v>
+        <v>18175.94</v>
       </c>
       <c r="G694" s="11" t="s">
         <v>14</v>
@@ -24672,7 +24669,7 @@
         <v>65</v>
       </c>
       <c r="F695" s="3" t="n">
-        <v>13822.78</v>
+        <v>18201.72</v>
       </c>
       <c r="G695" s="11" t="s">
         <v>14</v>
@@ -24707,7 +24704,7 @@
         <v>70</v>
       </c>
       <c r="F696" s="3" t="n">
-        <v>13853.01</v>
+        <v>18145.23</v>
       </c>
       <c r="G696" s="11" t="s">
         <v>14</v>
@@ -24742,7 +24739,7 @@
         <v>75</v>
       </c>
       <c r="F697" s="3" t="n">
-        <v>13892.42</v>
+        <v>18180.7</v>
       </c>
       <c r="G697" s="11" t="s">
         <v>14</v>
@@ -24777,7 +24774,7 @@
         <v>99</v>
       </c>
       <c r="F698" s="3" t="n">
-        <v>13892.42</v>
+        <v>18180.7</v>
       </c>
       <c r="G698" s="11" t="s">
         <v>14</v>
@@ -25232,7 +25229,7 @@
         <v>60</v>
       </c>
       <c r="F711" s="3" t="n">
-        <v>16188.64</v>
+        <v>21279.92</v>
       </c>
       <c r="G711" s="11" t="s">
         <v>18</v>
@@ -25267,7 +25264,7 @@
         <v>65</v>
       </c>
       <c r="F712" s="3" t="n">
-        <v>17382.17</v>
+        <v>22890.52</v>
       </c>
       <c r="G712" s="11" t="s">
         <v>18</v>
@@ -25302,7 +25299,7 @@
         <v>70</v>
       </c>
       <c r="F713" s="3" t="n">
-        <v>13853.01</v>
+        <v>18145.23</v>
       </c>
       <c r="G713" s="11" t="s">
         <v>18</v>
@@ -25337,7 +25334,7 @@
         <v>75</v>
       </c>
       <c r="F714" s="3" t="n">
-        <v>13892.42</v>
+        <v>18180.7</v>
       </c>
       <c r="G714" s="11" t="s">
         <v>18</v>
@@ -25372,7 +25369,7 @@
         <v>99</v>
       </c>
       <c r="F715" s="3" t="n">
-        <v>13892.42</v>
+        <v>18180.7</v>
       </c>
       <c r="G715" s="11" t="s">
         <v>18</v>
@@ -25391,7 +25388,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:J715"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
